--- a/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Altura media en cm</t>
+          <t>Altura media en cm (tasa de respuesta: 98,31%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>176,71</t>
+          <t>176,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>164,74</t>
+          <t>165,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>170,96</t>
+          <t>171,02</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>175,26; 178,16</t>
+          <t>175,51; 178,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>174,65; 178,33</t>
+          <t>174,55; 178,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>174,55; 177,15</t>
+          <t>174,47; 177,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>163,73; 165,83</t>
+          <t>163,8; 167,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>162,1; 164,67</t>
+          <t>162,08; 164,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>163,16; 165,68</t>
+          <t>163,05; 165,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>169,82; 172,11</t>
+          <t>169,73; 172,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169,32; 172,2</t>
+          <t>169,24; 172,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>169,02; 171,18</t>
+          <t>169,04; 171,3</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>176,31</t>
+          <t>176,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>164,19</t>
+          <t>163,7</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>169,92</t>
+          <t>170,17</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>175,23; 177,45</t>
+          <t>175,31; 177,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>174,81; 177,16</t>
+          <t>174,85; 177,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>174,27; 176,4</t>
+          <t>174,26; 176,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>163,13; 165,33</t>
+          <t>162,33; 164,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>157,55; 164,01</t>
+          <t>157,17; 163,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>162,11; 164,15</t>
+          <t>162,02; 164,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>168,73; 170,89</t>
+          <t>169,01; 171,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>162,65; 169,94</t>
+          <t>162,64; 170,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>168,25; 170,13</t>
+          <t>168,16; 170,09</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>177,13</t>
+          <t>177,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>163,73</t>
+          <t>164,2</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>170,14</t>
+          <t>170,81</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>176,27; 177,99</t>
+          <t>176,37; 178,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>174,48; 176,06</t>
+          <t>174,46; 175,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172,82; 176,06</t>
+          <t>172,94; 176,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>163,05; 164,5</t>
+          <t>163,4; 165,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>163,1; 164,23</t>
+          <t>163,14; 164,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>161,58; 163,44</t>
+          <t>161,6; 163,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>169,37; 171,07</t>
+          <t>169,94; 171,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168,77; 170,0</t>
+          <t>168,72; 170,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>167,86; 169,98</t>
+          <t>167,88; 169,94</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>176,15</t>
+          <t>176,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>162,89</t>
+          <t>163,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>169,45</t>
+          <t>169,54</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>175,51; 176,88</t>
+          <t>175,25; 176,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174,08; 180,3</t>
+          <t>174,07; 180,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174,29; 176,36</t>
+          <t>174,21; 176,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>162,28; 163,5</t>
+          <t>162,35; 163,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>161,2; 163,26</t>
+          <t>161,27; 163,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>161,26; 163,55</t>
+          <t>161,3; 163,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>168,77; 170,23</t>
+          <t>168,85; 170,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>168,12; 176,61</t>
+          <t>168,16; 177,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>167,78; 169,8</t>
+          <t>167,67; 169,76</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>172,99</t>
+          <t>173,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>161,0</t>
+          <t>161,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>166,45</t>
+          <t>167,11</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>172,28; 173,68</t>
+          <t>172,54; 173,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>172,4; 173,79</t>
+          <t>172,41; 173,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>171,7; 173,94</t>
+          <t>171,65; 173,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>160,31; 161,58</t>
+          <t>160,76; 162,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>160,75; 161,83</t>
+          <t>160,81; 161,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>159,76; 161,3</t>
+          <t>159,69; 161,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>165,85; 167,06</t>
+          <t>166,42; 167,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>166,75; 167,98</t>
+          <t>166,79; 167,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>165,41; 167,16</t>
+          <t>165,45; 167,21</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>171,04</t>
+          <t>171,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>160,25</t>
+          <t>160,16</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>165,31</t>
+          <t>165,27</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>170,3; 171,83</t>
+          <t>170,42; 172,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169,57; 170,99</t>
+          <t>169,61; 170,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170,36; 173,41</t>
+          <t>170,16; 173,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>159,63; 160,93</t>
+          <t>159,47; 160,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>155,96; 160,22</t>
+          <t>155,94; 160,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>157,07; 159,08</t>
+          <t>157,13; 159,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>164,67; 165,94</t>
+          <t>164,58; 165,98</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>157,78; 164,83</t>
+          <t>157,85; 164,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>163,0; 165,53</t>
+          <t>162,96; 165,51</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>168,87</t>
+          <t>169,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>158,52</t>
+          <t>158,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>162,52</t>
+          <t>162,35</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>168,1; 169,69</t>
+          <t>168,37; 170,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>168,07; 169,75</t>
+          <t>168,11; 169,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>167,69; 169,89</t>
+          <t>167,59; 169,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>157,86; 159,14</t>
+          <t>157,24; 158,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>155,33; 157,35</t>
+          <t>155,3; 157,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>161,86; 163,12</t>
+          <t>161,59; 163,06</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>162,28; 163,53</t>
+          <t>162,27; 163,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>160,32; 162,36</t>
+          <t>160,36; 162,48</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>173,81</t>
+          <t>174,56</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>161,53</t>
+          <t>162,05</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>167,2</t>
+          <t>168,01</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>173,44; 174,15</t>
+          <t>174,21; 174,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>173,73; 176,82</t>
+          <t>173,74; 177,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>173,46; 174,45</t>
+          <t>173,43; 174,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>161,26; 161,82</t>
+          <t>161,68; 162,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>159,29; 162,03</t>
+          <t>159,4; 162,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>160,71; 161,52</t>
+          <t>160,64; 161,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>166,9; 167,48</t>
+          <t>167,67; 168,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>166,19; 170,07</t>
+          <t>166,09; 170,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>166,83; 167,68</t>
+          <t>166,88; 167,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ALTURA-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>176,42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>175,86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>177,65</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>176,99</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>176,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>177,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>175,86</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>163,22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>164,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>164,32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>165,23</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>163,4</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>164,32</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>164,32</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>170,16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>170,15</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>170,98</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>171,02</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>170,74</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>170,98</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>170,15</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>174,7; 177,91</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>174,47; 177,22</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>176,74; 178,66</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>175,51; 178,67</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>174,55; 178,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>176,74; 178,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>174,47; 177,22</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>162,05; 164,45</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>163,05; 165,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>163,41; 165,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>163,8; 167,01</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>162,08; 164,56</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>163,41; 165,19</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>163,05; 165,46</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>168,91; 171,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>169,04; 171,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>170,03; 171,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>169,73; 172,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>169,24; 172,35</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>170,03; 171,87</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>169,04; 171,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>175,6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>175,36</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>177,21</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>176,63</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>175,94</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>177,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>175,36</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>163,79</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>163,0</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>163,54</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>163,7</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>161,39</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>163,54</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>163,0</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>169,46</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>169,14</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>169,84</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>170,17</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>167,55</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>169,84</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>169,14</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>174,64; 176,68</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>174,26; 176,35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>176,41; 178,09</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>175,31; 177,96</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>174,85; 177,21</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>176,41; 178,09</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>174,26; 176,35</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>163,12; 164,63</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>162,02; 164,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>162,85; 164,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>162,33; 164,92</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>157,17; 163,99</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>162,85; 164,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>162,02; 164,07</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>168,62; 170,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>168,16; 170,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>169,02; 170,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>169,01; 171,46</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>162,64; 170,02</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>169,02; 170,61</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>168,16; 170,09</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>175,28</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>174,93</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>177,29</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>175,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>177,29</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>174,93</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>163,59</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>162,53</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>163,41</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>164,2</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>163,69</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>163,41</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>162,53</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>169,39</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>168,97</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170,35</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>170,81</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>169,36</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>170,35</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>168,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>174,53; 176,0</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>172,94; 176,08</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176,53; 178,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>176,37; 178,23</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>174,46; 175,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>176,53; 178,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>172,94; 176,08</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>163,08; 164,18</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>161,6; 163,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>162,8; 164,04</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>163,4; 165,13</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>163,14; 164,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>162,8; 164,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>161,6; 163,48</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>168,76; 170,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>167,88; 169,94</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>169,62; 171,04</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>169,94; 171,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>168,72; 170,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>169,62; 171,04</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>167,88; 169,94</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>174,43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>175,38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>176,16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>176,01</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>177,32</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>176,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>175,38</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>163,01</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>162,23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>163,4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>163,05</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>162,68</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>163,4</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>162,23</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>168,62</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>168,73</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>169,97</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>169,54</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>171,6</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>169,97</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>168,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>173,79; 175,12</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>174,21; 176,36</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>175,56; 176,73</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>175,25; 176,66</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>174,07; 180,5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>175,56; 176,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>174,21; 176,36</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>162,5; 163,54</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>161,3; 163,46</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>162,81; 164,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>162,35; 163,73</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>161,27; 163,28</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>162,81; 164,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>161,3; 163,46</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>168,09; 169,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>167,67; 169,76</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>169,38; 170,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>168,85; 170,25</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>168,16; 177,1</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>169,38; 170,61</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>167,67; 169,76</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>173,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>172,86</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>175,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>173,23</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>173,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>175,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>172,86</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>161,53</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>160,5</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>161,45</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>161,35</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>161,45</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>160,5</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>167,33</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>166,28</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>168,04</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>167,11</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>167,37</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>168,04</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>166,28</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>172,41; 173,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>171,65; 173,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>174,44; 175,84</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>172,54; 173,99</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>172,41; 173,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>174,44; 175,84</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>171,65; 173,89</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>161,08; 162,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>159,69; 161,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>160,83; 162,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>160,76; 162,24</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>160,81; 161,85</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>160,83; 162,03</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>159,69; 161,17</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>166,81; 167,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>165,45; 167,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>167,38; 168,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>166,42; 167,8</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>166,79; 167,97</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>167,38; 168,75</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>165,45; 167,21</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>170,37</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>171,76</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>171,53</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>171,2</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>170,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>171,53</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>171,76</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>159,99</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>158,2</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>159,93</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>160,16</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>157,72</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>159,93</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>158,2</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>164,79</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>164,22</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>165,7</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>165,27</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>161,63</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>165,7</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>164,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>169,69; 171,02</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>170,16; 173,43</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>171,01; 172,07</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>170,42; 172,03</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>169,61; 170,97</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>171,01; 172,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>170,16; 173,43</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>159,48; 160,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>157,13; 159,14</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>159,35; 160,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>159,47; 160,92</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>155,94; 160,24</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>159,35; 160,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>157,13; 159,14</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>164,24; 165,37</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>162,96; 165,51</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>165,15; 166,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>164,58; 165,98</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>157,85; 164,9</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>165,15; 166,21</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>162,96; 165,51</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>168,96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>168,81</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>169,53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>169,17</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>168,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>169,53</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>168,81</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>158,81</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>156,39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>158,41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>158,1</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>158,81</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>158,41</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>156,39</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>162,91</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>161,34</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>162,98</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>162,35</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>162,91</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>162,98</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>161,34</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>168,16; 169,77</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>167,59; 169,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>168,8; 170,24</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>168,37; 170,07</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>168,11; 169,73</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>168,8; 170,24</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>167,59; 169,88</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>158,19; 159,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>155,3; 157,25</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>157,73; 159,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>157,24; 158,79</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>158,15; 159,39</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>157,73; 159,07</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>155,3; 157,25</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>162,31; 163,59</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>160,36; 162,48</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>162,37; 163,57</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>161,59; 163,06</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>162,27; 163,55</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>162,37; 163,57</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>160,36; 162,48</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>173,84</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>173,98</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>175,26</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>174,56</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>174,81</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>175,26</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>173,98</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>162,17</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>161,09</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>162,13</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>162,05</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>161,13</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>162,13</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>161,09</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>167,84</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>167,28</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>168,48</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>168,01</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>167,8</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>168,48</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>167,28</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>173,52; 174,14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>173,43; 174,43</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>174,95; 175,53</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>174,21; 174,94</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>173,74; 177,15</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>174,95; 175,53</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>173,43; 174,43</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>161,9; 162,43</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>160,64; 161,48</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>161,87; 162,41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>161,68; 162,4</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>159,4; 162,06</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>161,87; 162,41</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>160,64; 161,48</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>167,54; 168,11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>166,88; 167,7</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>168,22; 168,8</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>167,67; 168,39</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>166,09; 170,2</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>168,22; 168,8</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>166,88; 167,7</t>
         </is>
       </c>
     </row>
